--- a/xlsx/艾美奖_intext.xlsx
+++ b/xlsx/艾美奖_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="598">
   <si>
     <t>艾美奖</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC69%E5%B1%86%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>第69屆黃金時段艾美獎</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_艾美奖</t>
+    <t>第69届黄金时段艾美奖</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Academy_of_Television_Arts_%26_Sciences</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%E9%87%91%E5%83%8F%E7%8D%8E</t>
   </si>
   <si>
-    <t>奧斯卡金像獎</t>
+    <t>奥斯卡金像奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E8%90%8A%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>葛萊美獎</t>
+    <t>葛莱美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B0%BC%E7%8D%8E</t>
   </si>
   <si>
-    <t>東尼獎</t>
+    <t>东尼奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>黃金時段艾美獎</t>
+    <t>黄金时段艾美奖</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Academy_of_Television_Arts_%26_Sciences</t>
@@ -89,37 +89,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>國際艾美獎</t>
+    <t>国际艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%A1%8C%E8%A9%95%E5%AF%A9</t>
   </si>
   <si>
-    <t>同行評審</t>
+    <t>同行评审</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>緬因州</t>
+    <t>缅因州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬薩諸塞州</t>
+    <t>马萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>新罕布什爾州</t>
+    <t>新罕布什尔州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%97%E5%B2%9B%E5%B7%9E</t>
@@ -155,43 +155,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾伊州</t>
+    <t>伊利诺伊州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%85%8B%E6%8B%89%E4%BD%95%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>俄克拉何馬州</t>
+    <t>俄克拉何马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>懷俄明州</t>
+    <t>怀俄明州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛荷華州</t>
+    <t>爱荷华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -245,49 +245,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>特拉華州</t>
+    <t>特拉华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>新澤西州</t>
+    <t>新泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
+    <t>华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛達荷州</t>
+    <t>爱达荷州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E5%B7%9E</t>
   </si>
   <si>
-    <t>俄勒岡州</t>
+    <t>俄勒冈州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>華盛頓州</t>
+    <t>华盛顿州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -341,19 +341,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%B7%9E</t>
@@ -383,43 +383,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>阿拉巴馬州</t>
+    <t>阿拉巴马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%90%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>佐治亞州</t>
+    <t>佐治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>北達科他州</t>
+    <t>北达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>南達科他州</t>
+    <t>南达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>公共電視</t>
+    <t>公共电视</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bob_Hope_Humanitarian_Award</t>
@@ -431,19 +431,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%AD%B8%E8%A1%93%E9%9B%BB%E8%A6%96%E7%8D%8E</t>
   </si>
   <si>
-    <t>英國學術電視獎</t>
+    <t>英国学术电视奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%90%98%E7%8D%8E</t>
   </si>
   <si>
-    <t>金鐘獎</t>
+    <t>金钟奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9B%BB%E8%A6%96%E7%8D%8E</t>
   </si>
   <si>
-    <t>國家電視獎</t>
+    <t>国家电视奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%94%B5%E8%A7%86%E9%87%91%E9%B9%B0%E5%A5%96</t>
@@ -467,9 +467,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>艾美獎</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/International_Academy_of_Television_Arts_and_Sciences</t>
   </si>
   <si>
@@ -863,43 +860,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC62%E5%B1%86%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>第62屆黃金時段艾美獎</t>
+    <t>第62届黄金时段艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC63%E5%B1%86%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>第63屆黃金時段艾美獎</t>
+    <t>第63届黄金时段艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC64%E5%B1%86%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>第64屆黃金時段艾美獎</t>
+    <t>第64届黄金时段艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC65%E5%B1%86%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>第65屆黃金時段艾美獎</t>
+    <t>第65届黄金时段艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC66%E5%B1%86%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>第66屆黃金時段艾美獎</t>
+    <t>第66届黄金时段艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC67%E5%B1%86%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>第67屆黃金時段艾美獎</t>
+    <t>第67届黄金时段艾美奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC68%E5%B1%86%E9%BB%83%E9%87%91%E6%99%82%E6%AE%B5%E8%89%BE%E7%BE%8E%E7%8D%8E</t>
   </si>
   <si>
-    <t>第68屆黃金時段艾美獎</t>
+    <t>第68届黄金时段艾美奖</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Creative_Arts_Emmy_Award</t>
@@ -1805,7 +1802,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -4328,7 +4325,7 @@
         <v>149</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>95</v>
@@ -4354,10 +4351,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4383,10 +4380,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4412,10 +4409,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4441,10 +4438,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4470,10 +4467,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
@@ -4499,10 +4496,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>5</v>
@@ -4528,10 +4525,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>5</v>
@@ -4557,10 +4554,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
@@ -4586,10 +4583,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>6</v>
@@ -4615,10 +4612,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -4644,10 +4641,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>6</v>
@@ -4673,10 +4670,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>6</v>
@@ -4702,10 +4699,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -4731,10 +4728,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4760,10 +4757,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4789,10 +4786,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4818,10 +4815,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4847,10 +4844,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4876,10 +4873,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4905,10 +4902,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4934,10 +4931,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4963,10 +4960,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4992,10 +4989,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5021,10 +5018,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5050,10 +5047,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5079,10 +5076,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5108,10 +5105,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5137,10 +5134,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5166,10 +5163,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5195,10 +5192,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5224,10 +5221,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5253,10 +5250,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5282,10 +5279,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5311,10 +5308,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5340,10 +5337,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5369,10 +5366,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5398,10 +5395,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5427,10 +5424,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5456,10 +5453,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5485,10 +5482,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5514,10 +5511,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>230</v>
+      </c>
+      <c r="F116" t="s">
         <v>231</v>
-      </c>
-      <c r="F116" t="s">
-        <v>232</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5543,10 +5540,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" t="s">
         <v>233</v>
-      </c>
-      <c r="F117" t="s">
-        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5572,10 +5569,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
         <v>235</v>
-      </c>
-      <c r="F118" t="s">
-        <v>236</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5601,10 +5598,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>236</v>
+      </c>
+      <c r="F119" t="s">
         <v>237</v>
-      </c>
-      <c r="F119" t="s">
-        <v>238</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5630,10 +5627,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
         <v>239</v>
-      </c>
-      <c r="F120" t="s">
-        <v>240</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5659,10 +5656,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>240</v>
+      </c>
+      <c r="F121" t="s">
         <v>241</v>
-      </c>
-      <c r="F121" t="s">
-        <v>242</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5688,10 +5685,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5717,10 +5714,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5746,10 +5743,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5775,10 +5772,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5804,10 +5801,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5833,10 +5830,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5862,10 +5859,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5891,10 +5888,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5920,10 +5917,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5949,10 +5946,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5978,10 +5975,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6007,10 +6004,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6036,10 +6033,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6065,10 +6062,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6094,10 +6091,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6123,10 +6120,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6152,10 +6149,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>274</v>
+      </c>
+      <c r="F138" t="s">
         <v>275</v>
-      </c>
-      <c r="F138" t="s">
-        <v>276</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6181,10 +6178,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>276</v>
+      </c>
+      <c r="F139" t="s">
         <v>277</v>
-      </c>
-      <c r="F139" t="s">
-        <v>278</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6210,10 +6207,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>278</v>
+      </c>
+      <c r="F140" t="s">
         <v>279</v>
-      </c>
-      <c r="F140" t="s">
-        <v>280</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6239,10 +6236,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" t="s">
         <v>281</v>
-      </c>
-      <c r="F141" t="s">
-        <v>282</v>
       </c>
       <c r="G141" t="n">
         <v>7</v>
@@ -6268,10 +6265,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>282</v>
+      </c>
+      <c r="F142" t="s">
         <v>283</v>
-      </c>
-      <c r="F142" t="s">
-        <v>284</v>
       </c>
       <c r="G142" t="n">
         <v>6</v>
@@ -6297,10 +6294,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>284</v>
+      </c>
+      <c r="F143" t="s">
         <v>285</v>
-      </c>
-      <c r="F143" t="s">
-        <v>286</v>
       </c>
       <c r="G143" t="n">
         <v>10</v>
@@ -6326,10 +6323,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>286</v>
+      </c>
+      <c r="F144" t="s">
         <v>287</v>
-      </c>
-      <c r="F144" t="s">
-        <v>288</v>
       </c>
       <c r="G144" t="n">
         <v>9</v>
@@ -6355,10 +6352,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>288</v>
+      </c>
+      <c r="F145" t="s">
         <v>289</v>
-      </c>
-      <c r="F145" t="s">
-        <v>290</v>
       </c>
       <c r="G145" t="n">
         <v>12</v>
@@ -6384,10 +6381,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>290</v>
+      </c>
+      <c r="F146" t="s">
         <v>291</v>
-      </c>
-      <c r="F146" t="s">
-        <v>292</v>
       </c>
       <c r="G146" t="n">
         <v>6</v>
@@ -6413,10 +6410,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>292</v>
+      </c>
+      <c r="F147" t="s">
         <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>294</v>
       </c>
       <c r="G147" t="n">
         <v>6</v>
@@ -6471,10 +6468,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>16</v>
@@ -6500,10 +6497,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6529,10 +6526,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6558,10 +6555,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6587,10 +6584,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6616,10 +6613,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6645,10 +6642,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6674,10 +6671,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6703,10 +6700,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6732,10 +6729,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6761,10 +6758,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>47</v>
@@ -6790,10 +6787,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6819,10 +6816,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>4</v>
@@ -6848,10 +6845,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>4</v>
@@ -6877,10 +6874,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>4</v>
@@ -6906,10 +6903,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>5</v>
@@ -6935,10 +6932,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>4</v>
@@ -6964,10 +6961,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>4</v>
@@ -6993,10 +6990,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -7022,10 +7019,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -7051,10 +7048,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -7080,10 +7077,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7109,10 +7106,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7138,10 +7135,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7167,10 +7164,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7196,10 +7193,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7225,10 +7222,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7254,10 +7251,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7283,10 +7280,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7312,10 +7309,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7341,10 +7338,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7370,10 +7367,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>356</v>
+      </c>
+      <c r="F180" t="s">
         <v>357</v>
-      </c>
-      <c r="F180" t="s">
-        <v>358</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7399,10 +7396,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" t="s">
         <v>359</v>
-      </c>
-      <c r="F181" t="s">
-        <v>360</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7428,10 +7425,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
         <v>361</v>
-      </c>
-      <c r="F182" t="s">
-        <v>362</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7457,10 +7454,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" t="s">
         <v>363</v>
-      </c>
-      <c r="F183" t="s">
-        <v>364</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7486,10 +7483,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>364</v>
+      </c>
+      <c r="F184" t="s">
         <v>365</v>
-      </c>
-      <c r="F184" t="s">
-        <v>366</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7515,10 +7512,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>366</v>
+      </c>
+      <c r="F185" t="s">
         <v>367</v>
-      </c>
-      <c r="F185" t="s">
-        <v>368</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7544,10 +7541,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>368</v>
+      </c>
+      <c r="F186" t="s">
         <v>369</v>
-      </c>
-      <c r="F186" t="s">
-        <v>370</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7573,10 +7570,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>370</v>
+      </c>
+      <c r="F187" t="s">
         <v>371</v>
-      </c>
-      <c r="F187" t="s">
-        <v>372</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7602,10 +7599,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>372</v>
+      </c>
+      <c r="F188" t="s">
         <v>373</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7631,10 +7628,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>374</v>
+      </c>
+      <c r="F189" t="s">
         <v>375</v>
-      </c>
-      <c r="F189" t="s">
-        <v>376</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7660,10 +7657,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>376</v>
+      </c>
+      <c r="F190" t="s">
         <v>377</v>
-      </c>
-      <c r="F190" t="s">
-        <v>378</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7689,10 +7686,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>378</v>
+      </c>
+      <c r="F191" t="s">
         <v>379</v>
-      </c>
-      <c r="F191" t="s">
-        <v>380</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7718,10 +7715,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>380</v>
+      </c>
+      <c r="F192" t="s">
         <v>381</v>
-      </c>
-      <c r="F192" t="s">
-        <v>382</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7747,10 +7744,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>382</v>
+      </c>
+      <c r="F193" t="s">
         <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>384</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7776,10 +7773,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>384</v>
+      </c>
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>386</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7805,10 +7802,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>386</v>
+      </c>
+      <c r="F195" t="s">
         <v>387</v>
-      </c>
-      <c r="F195" t="s">
-        <v>388</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7834,10 +7831,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>388</v>
+      </c>
+      <c r="F196" t="s">
         <v>389</v>
-      </c>
-      <c r="F196" t="s">
-        <v>390</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7863,10 +7860,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>390</v>
+      </c>
+      <c r="F197" t="s">
         <v>391</v>
-      </c>
-      <c r="F197" t="s">
-        <v>392</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7892,10 +7889,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>392</v>
+      </c>
+      <c r="F198" t="s">
         <v>393</v>
-      </c>
-      <c r="F198" t="s">
-        <v>394</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7921,10 +7918,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>394</v>
+      </c>
+      <c r="F199" t="s">
         <v>395</v>
-      </c>
-      <c r="F199" t="s">
-        <v>396</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7950,10 +7947,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>396</v>
+      </c>
+      <c r="F200" t="s">
         <v>397</v>
-      </c>
-      <c r="F200" t="s">
-        <v>398</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7979,10 +7976,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>398</v>
+      </c>
+      <c r="F201" t="s">
         <v>399</v>
-      </c>
-      <c r="F201" t="s">
-        <v>400</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8008,10 +8005,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>400</v>
+      </c>
+      <c r="F202" t="s">
         <v>401</v>
-      </c>
-      <c r="F202" t="s">
-        <v>402</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8037,10 +8034,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>402</v>
+      </c>
+      <c r="F203" t="s">
         <v>403</v>
-      </c>
-      <c r="F203" t="s">
-        <v>404</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8066,10 +8063,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" t="s">
         <v>405</v>
-      </c>
-      <c r="F204" t="s">
-        <v>406</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8095,10 +8092,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>406</v>
+      </c>
+      <c r="F205" t="s">
         <v>407</v>
-      </c>
-      <c r="F205" t="s">
-        <v>408</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8124,10 +8121,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>408</v>
+      </c>
+      <c r="F206" t="s">
         <v>409</v>
-      </c>
-      <c r="F206" t="s">
-        <v>410</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8153,10 +8150,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207" t="s">
         <v>411</v>
-      </c>
-      <c r="F207" t="s">
-        <v>412</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8182,10 +8179,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>412</v>
+      </c>
+      <c r="F208" t="s">
         <v>413</v>
-      </c>
-      <c r="F208" t="s">
-        <v>414</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8211,10 +8208,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>414</v>
+      </c>
+      <c r="F209" t="s">
         <v>415</v>
-      </c>
-      <c r="F209" t="s">
-        <v>416</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8240,10 +8237,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>416</v>
+      </c>
+      <c r="F210" t="s">
         <v>417</v>
-      </c>
-      <c r="F210" t="s">
-        <v>418</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8269,10 +8266,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>418</v>
+      </c>
+      <c r="F211" t="s">
         <v>419</v>
-      </c>
-      <c r="F211" t="s">
-        <v>420</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8298,10 +8295,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>420</v>
+      </c>
+      <c r="F212" t="s">
         <v>421</v>
-      </c>
-      <c r="F212" t="s">
-        <v>422</v>
       </c>
       <c r="G212" t="n">
         <v>4</v>
@@ -8327,10 +8324,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>422</v>
+      </c>
+      <c r="F213" t="s">
         <v>423</v>
-      </c>
-      <c r="F213" t="s">
-        <v>424</v>
       </c>
       <c r="G213" t="n">
         <v>4</v>
@@ -8356,10 +8353,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>424</v>
+      </c>
+      <c r="F214" t="s">
         <v>425</v>
-      </c>
-      <c r="F214" t="s">
-        <v>426</v>
       </c>
       <c r="G214" t="n">
         <v>4</v>
@@ -8385,10 +8382,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>426</v>
+      </c>
+      <c r="F215" t="s">
         <v>427</v>
-      </c>
-      <c r="F215" t="s">
-        <v>428</v>
       </c>
       <c r="G215" t="n">
         <v>5</v>
@@ -8414,10 +8411,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>428</v>
+      </c>
+      <c r="F216" t="s">
         <v>429</v>
-      </c>
-      <c r="F216" t="s">
-        <v>430</v>
       </c>
       <c r="G216" t="n">
         <v>5</v>
@@ -8443,10 +8440,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>430</v>
+      </c>
+      <c r="F217" t="s">
         <v>431</v>
-      </c>
-      <c r="F217" t="s">
-        <v>432</v>
       </c>
       <c r="G217" t="n">
         <v>4</v>
@@ -8472,10 +8469,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>432</v>
+      </c>
+      <c r="F218" t="s">
         <v>433</v>
-      </c>
-      <c r="F218" t="s">
-        <v>434</v>
       </c>
       <c r="G218" t="n">
         <v>4</v>
@@ -8501,10 +8498,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>434</v>
+      </c>
+      <c r="F219" t="s">
         <v>435</v>
-      </c>
-      <c r="F219" t="s">
-        <v>436</v>
       </c>
       <c r="G219" t="n">
         <v>4</v>
@@ -8530,10 +8527,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>436</v>
+      </c>
+      <c r="F220" t="s">
         <v>437</v>
-      </c>
-      <c r="F220" t="s">
-        <v>438</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8559,10 +8556,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>438</v>
+      </c>
+      <c r="F221" t="s">
         <v>439</v>
-      </c>
-      <c r="F221" t="s">
-        <v>440</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8588,10 +8585,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>440</v>
+      </c>
+      <c r="F222" t="s">
         <v>441</v>
-      </c>
-      <c r="F222" t="s">
-        <v>442</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8617,10 +8614,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>442</v>
+      </c>
+      <c r="F223" t="s">
         <v>443</v>
-      </c>
-      <c r="F223" t="s">
-        <v>444</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8646,10 +8643,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>444</v>
+      </c>
+      <c r="F224" t="s">
         <v>445</v>
-      </c>
-      <c r="F224" t="s">
-        <v>446</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8675,10 +8672,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>446</v>
+      </c>
+      <c r="F225" t="s">
         <v>447</v>
-      </c>
-      <c r="F225" t="s">
-        <v>448</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8704,10 +8701,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>448</v>
+      </c>
+      <c r="F226" t="s">
         <v>449</v>
-      </c>
-      <c r="F226" t="s">
-        <v>450</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8733,10 +8730,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>450</v>
+      </c>
+      <c r="F227" t="s">
         <v>451</v>
-      </c>
-      <c r="F227" t="s">
-        <v>452</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8762,10 +8759,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>452</v>
+      </c>
+      <c r="F228" t="s">
         <v>453</v>
-      </c>
-      <c r="F228" t="s">
-        <v>454</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8791,10 +8788,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>454</v>
+      </c>
+      <c r="F229" t="s">
         <v>455</v>
-      </c>
-      <c r="F229" t="s">
-        <v>456</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8820,10 +8817,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>456</v>
+      </c>
+      <c r="F230" t="s">
         <v>457</v>
-      </c>
-      <c r="F230" t="s">
-        <v>458</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8849,10 +8846,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>458</v>
+      </c>
+      <c r="F231" t="s">
         <v>459</v>
-      </c>
-      <c r="F231" t="s">
-        <v>460</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8878,10 +8875,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>460</v>
+      </c>
+      <c r="F232" t="s">
         <v>461</v>
-      </c>
-      <c r="F232" t="s">
-        <v>462</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8907,10 +8904,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>462</v>
+      </c>
+      <c r="F233" t="s">
         <v>463</v>
-      </c>
-      <c r="F233" t="s">
-        <v>464</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8936,10 +8933,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>464</v>
+      </c>
+      <c r="F234" t="s">
         <v>465</v>
-      </c>
-      <c r="F234" t="s">
-        <v>466</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8965,10 +8962,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>466</v>
+      </c>
+      <c r="F235" t="s">
         <v>467</v>
-      </c>
-      <c r="F235" t="s">
-        <v>468</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8994,10 +8991,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>468</v>
+      </c>
+      <c r="F236" t="s">
         <v>469</v>
-      </c>
-      <c r="F236" t="s">
-        <v>470</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9023,10 +9020,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>470</v>
+      </c>
+      <c r="F237" t="s">
         <v>471</v>
-      </c>
-      <c r="F237" t="s">
-        <v>472</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9052,10 +9049,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>472</v>
+      </c>
+      <c r="F238" t="s">
         <v>473</v>
-      </c>
-      <c r="F238" t="s">
-        <v>474</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9081,10 +9078,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>474</v>
+      </c>
+      <c r="F239" t="s">
         <v>475</v>
-      </c>
-      <c r="F239" t="s">
-        <v>476</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9110,10 +9107,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>476</v>
+      </c>
+      <c r="F240" t="s">
         <v>477</v>
-      </c>
-      <c r="F240" t="s">
-        <v>478</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9139,10 +9136,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>478</v>
+      </c>
+      <c r="F241" t="s">
         <v>479</v>
-      </c>
-      <c r="F241" t="s">
-        <v>480</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9168,10 +9165,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>480</v>
+      </c>
+      <c r="F242" t="s">
         <v>481</v>
-      </c>
-      <c r="F242" t="s">
-        <v>482</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9197,10 +9194,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>482</v>
+      </c>
+      <c r="F243" t="s">
         <v>483</v>
-      </c>
-      <c r="F243" t="s">
-        <v>484</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9226,10 +9223,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>484</v>
+      </c>
+      <c r="F244" t="s">
         <v>485</v>
-      </c>
-      <c r="F244" t="s">
-        <v>486</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9255,10 +9252,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>486</v>
+      </c>
+      <c r="F245" t="s">
         <v>487</v>
-      </c>
-      <c r="F245" t="s">
-        <v>488</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9284,10 +9281,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>488</v>
+      </c>
+      <c r="F246" t="s">
         <v>489</v>
-      </c>
-      <c r="F246" t="s">
-        <v>490</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9313,10 +9310,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>490</v>
+      </c>
+      <c r="F247" t="s">
         <v>491</v>
-      </c>
-      <c r="F247" t="s">
-        <v>492</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9342,10 +9339,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>492</v>
+      </c>
+      <c r="F248" t="s">
         <v>493</v>
-      </c>
-      <c r="F248" t="s">
-        <v>494</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9371,10 +9368,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>494</v>
+      </c>
+      <c r="F249" t="s">
         <v>495</v>
-      </c>
-      <c r="F249" t="s">
-        <v>496</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9400,10 +9397,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>496</v>
+      </c>
+      <c r="F250" t="s">
         <v>497</v>
-      </c>
-      <c r="F250" t="s">
-        <v>498</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9429,10 +9426,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>498</v>
+      </c>
+      <c r="F251" t="s">
         <v>499</v>
-      </c>
-      <c r="F251" t="s">
-        <v>500</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9458,10 +9455,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>500</v>
+      </c>
+      <c r="F252" t="s">
         <v>501</v>
-      </c>
-      <c r="F252" t="s">
-        <v>502</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9487,10 +9484,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>502</v>
+      </c>
+      <c r="F253" t="s">
         <v>503</v>
-      </c>
-      <c r="F253" t="s">
-        <v>504</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9516,10 +9513,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>504</v>
+      </c>
+      <c r="F254" t="s">
         <v>505</v>
-      </c>
-      <c r="F254" t="s">
-        <v>506</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9545,10 +9542,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>506</v>
+      </c>
+      <c r="F255" t="s">
         <v>507</v>
-      </c>
-      <c r="F255" t="s">
-        <v>508</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9574,10 +9571,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>508</v>
+      </c>
+      <c r="F256" t="s">
         <v>509</v>
-      </c>
-      <c r="F256" t="s">
-        <v>510</v>
       </c>
       <c r="G256" t="n">
         <v>13</v>
@@ -9603,10 +9600,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>510</v>
+      </c>
+      <c r="F257" t="s">
         <v>511</v>
-      </c>
-      <c r="F257" t="s">
-        <v>512</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9632,10 +9629,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>512</v>
+      </c>
+      <c r="F258" t="s">
         <v>513</v>
-      </c>
-      <c r="F258" t="s">
-        <v>514</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9661,10 +9658,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>514</v>
+      </c>
+      <c r="F259" t="s">
         <v>515</v>
-      </c>
-      <c r="F259" t="s">
-        <v>516</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9690,10 +9687,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>516</v>
+      </c>
+      <c r="F260" t="s">
         <v>517</v>
-      </c>
-      <c r="F260" t="s">
-        <v>518</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9719,10 +9716,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>518</v>
+      </c>
+      <c r="F261" t="s">
         <v>519</v>
-      </c>
-      <c r="F261" t="s">
-        <v>520</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9748,10 +9745,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>520</v>
+      </c>
+      <c r="F262" t="s">
         <v>521</v>
-      </c>
-      <c r="F262" t="s">
-        <v>522</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9777,10 +9774,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>522</v>
+      </c>
+      <c r="F263" t="s">
         <v>523</v>
-      </c>
-      <c r="F263" t="s">
-        <v>524</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9806,10 +9803,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>524</v>
+      </c>
+      <c r="F264" t="s">
         <v>525</v>
-      </c>
-      <c r="F264" t="s">
-        <v>526</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9835,10 +9832,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>526</v>
+      </c>
+      <c r="F265" t="s">
         <v>527</v>
-      </c>
-      <c r="F265" t="s">
-        <v>528</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9864,10 +9861,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>528</v>
+      </c>
+      <c r="F266" t="s">
         <v>529</v>
-      </c>
-      <c r="F266" t="s">
-        <v>530</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9893,10 +9890,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>530</v>
+      </c>
+      <c r="F267" t="s">
         <v>531</v>
-      </c>
-      <c r="F267" t="s">
-        <v>532</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9922,10 +9919,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>532</v>
+      </c>
+      <c r="F268" t="s">
         <v>533</v>
-      </c>
-      <c r="F268" t="s">
-        <v>534</v>
       </c>
       <c r="G268" t="n">
         <v>5</v>
@@ -9951,10 +9948,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>534</v>
+      </c>
+      <c r="F269" t="s">
         <v>535</v>
-      </c>
-      <c r="F269" t="s">
-        <v>536</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9980,10 +9977,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>536</v>
+      </c>
+      <c r="F270" t="s">
         <v>537</v>
-      </c>
-      <c r="F270" t="s">
-        <v>538</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10009,10 +10006,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>538</v>
+      </c>
+      <c r="F271" t="s">
         <v>539</v>
-      </c>
-      <c r="F271" t="s">
-        <v>540</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10038,10 +10035,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>540</v>
+      </c>
+      <c r="F272" t="s">
         <v>541</v>
-      </c>
-      <c r="F272" t="s">
-        <v>542</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10067,10 +10064,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>542</v>
+      </c>
+      <c r="F273" t="s">
         <v>543</v>
-      </c>
-      <c r="F273" t="s">
-        <v>544</v>
       </c>
       <c r="G273" t="n">
         <v>5</v>
@@ -10096,10 +10093,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>544</v>
+      </c>
+      <c r="F274" t="s">
         <v>545</v>
-      </c>
-      <c r="F274" t="s">
-        <v>546</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10125,10 +10122,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>546</v>
+      </c>
+      <c r="F275" t="s">
         <v>547</v>
-      </c>
-      <c r="F275" t="s">
-        <v>548</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10154,10 +10151,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>548</v>
+      </c>
+      <c r="F276" t="s">
         <v>549</v>
-      </c>
-      <c r="F276" t="s">
-        <v>550</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10183,10 +10180,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>550</v>
+      </c>
+      <c r="F277" t="s">
         <v>551</v>
-      </c>
-      <c r="F277" t="s">
-        <v>552</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10212,10 +10209,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>552</v>
+      </c>
+      <c r="F278" t="s">
         <v>553</v>
-      </c>
-      <c r="F278" t="s">
-        <v>554</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10241,10 +10238,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>554</v>
+      </c>
+      <c r="F279" t="s">
         <v>555</v>
-      </c>
-      <c r="F279" t="s">
-        <v>556</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10270,10 +10267,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>556</v>
+      </c>
+      <c r="F280" t="s">
         <v>557</v>
-      </c>
-      <c r="F280" t="s">
-        <v>558</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10299,10 +10296,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>558</v>
+      </c>
+      <c r="F281" t="s">
         <v>559</v>
-      </c>
-      <c r="F281" t="s">
-        <v>560</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10328,10 +10325,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>560</v>
+      </c>
+      <c r="F282" t="s">
         <v>561</v>
-      </c>
-      <c r="F282" t="s">
-        <v>562</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10357,10 +10354,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>562</v>
+      </c>
+      <c r="F283" t="s">
         <v>563</v>
-      </c>
-      <c r="F283" t="s">
-        <v>564</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10386,10 +10383,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>564</v>
+      </c>
+      <c r="F284" t="s">
         <v>565</v>
-      </c>
-      <c r="F284" t="s">
-        <v>566</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10415,10 +10412,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>566</v>
+      </c>
+      <c r="F285" t="s">
         <v>567</v>
-      </c>
-      <c r="F285" t="s">
-        <v>568</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10444,10 +10441,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>568</v>
+      </c>
+      <c r="F286" t="s">
         <v>569</v>
-      </c>
-      <c r="F286" t="s">
-        <v>570</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10473,10 +10470,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>570</v>
+      </c>
+      <c r="F287" t="s">
         <v>571</v>
-      </c>
-      <c r="F287" t="s">
-        <v>572</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10502,10 +10499,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>572</v>
+      </c>
+      <c r="F288" t="s">
         <v>573</v>
-      </c>
-      <c r="F288" t="s">
-        <v>574</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10531,10 +10528,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>574</v>
+      </c>
+      <c r="F289" t="s">
         <v>575</v>
-      </c>
-      <c r="F289" t="s">
-        <v>576</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10560,10 +10557,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>576</v>
+      </c>
+      <c r="F290" t="s">
         <v>577</v>
-      </c>
-      <c r="F290" t="s">
-        <v>578</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10589,10 +10586,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>578</v>
+      </c>
+      <c r="F291" t="s">
         <v>579</v>
-      </c>
-      <c r="F291" t="s">
-        <v>580</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10618,10 +10615,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>580</v>
+      </c>
+      <c r="F292" t="s">
         <v>581</v>
-      </c>
-      <c r="F292" t="s">
-        <v>582</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10647,10 +10644,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>582</v>
+      </c>
+      <c r="F293" t="s">
         <v>583</v>
-      </c>
-      <c r="F293" t="s">
-        <v>584</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10676,10 +10673,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>584</v>
+      </c>
+      <c r="F294" t="s">
         <v>585</v>
-      </c>
-      <c r="F294" t="s">
-        <v>586</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10705,10 +10702,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>586</v>
+      </c>
+      <c r="F295" t="s">
         <v>587</v>
-      </c>
-      <c r="F295" t="s">
-        <v>588</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10734,10 +10731,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>588</v>
+      </c>
+      <c r="F296" t="s">
         <v>589</v>
-      </c>
-      <c r="F296" t="s">
-        <v>590</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10763,10 +10760,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>590</v>
+      </c>
+      <c r="F297" t="s">
         <v>591</v>
-      </c>
-      <c r="F297" t="s">
-        <v>592</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10792,10 +10789,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>592</v>
+      </c>
+      <c r="F298" t="s">
         <v>593</v>
-      </c>
-      <c r="F298" t="s">
-        <v>594</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10821,10 +10818,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>594</v>
+      </c>
+      <c r="F299" t="s">
         <v>595</v>
-      </c>
-      <c r="F299" t="s">
-        <v>596</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -10850,10 +10847,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>596</v>
+      </c>
+      <c r="F300" t="s">
         <v>597</v>
-      </c>
-      <c r="F300" t="s">
-        <v>598</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
